--- a/values.xlsx
+++ b/values.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kods\CarGooSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A176137E-617F-4422-BFD3-6C1932A264F8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC58A910-A1E5-467A-8A94-6DA72EDD4011}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Charger" sheetId="1" r:id="rId1"/>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -449,7 +449,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>30</v>
+        <v>150</v>
       </c>
       <c r="B2" s="1">
         <v>0.2</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>45</v>
+        <v>200</v>
       </c>
       <c r="B3" s="1">
         <v>0.3</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>60</v>
+        <v>220</v>
       </c>
       <c r="B4" s="1">
         <v>0.2</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="B5" s="1">
         <v>0.2</v>
@@ -509,7 +509,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>120</v>
+        <v>360</v>
       </c>
       <c r="B6" s="1">
         <v>0.1</v>
@@ -610,7 +610,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -719,9 +719,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EA85D89-A1DE-4E18-A485-67F5DC5B344A}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/values.xlsx
+++ b/values.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\kods\CarGooSimulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC58A910-A1E5-467A-8A94-6DA72EDD4011}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC65C27B-EFF6-4D9F-B8AF-226637B5F2B5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -449,7 +449,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>150</v>
+        <v>100</v>
       </c>
       <c r="B2" s="1">
         <v>0.2</v>
@@ -464,7 +464,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>200</v>
+        <v>150</v>
       </c>
       <c r="B3" s="1">
         <v>0.3</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>220</v>
+        <v>200</v>
       </c>
       <c r="B4" s="1">
         <v>0.2</v>
@@ -494,7 +494,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>300</v>
+        <v>250</v>
       </c>
       <c r="B5" s="1">
         <v>0.2</v>
